--- a/河南/洛阳市/旅游数据收集-洛阳市.xlsx
+++ b/河南/洛阳市/旅游数据收集-洛阳市.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="龙门石窟" sheetId="1" r:id="rId1"/>
+    <sheet name="白云山" sheetId="2" r:id="rId2"/>
+    <sheet name="老君山" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="120">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -241,6 +244,157 @@
   </si>
   <si>
     <t>龙门石窟开凿于北魏孝文帝年间，之后历经东魏、西魏、北齐、隋、唐、五代、宋等朝代连续大规模营造达400余年之久，南北长达1公里，今存有窟龛2345个，造像10万余尊，碑刻题记2800余品。其中“龙门二十品”是书法魏碑精华，褚遂良所书的“伊阙佛龛之碑”则是初唐楷书艺术的典范。</t>
+  </si>
+  <si>
+    <t>汉张良留侯祠</t>
+  </si>
+  <si>
+    <t>汉张良留侯祠系在原旧址上恢复重建的部分建筑，占地面积80亩，建筑面积1100平方米。留侯祠地处白云湖畔，祠前绿树成荫，碧水环绕，祠内陈列丰富，古朴的印月亭、草庵、垂钓台，供游人追寻汉相张良在此隐居生活的遗迹。</t>
+  </si>
+  <si>
+    <t>九龙瀑布观光区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">九龙瀑布是白河的发源地，也是整个白云山景区的精华所在。\n这里有一座桥名叫“仙人桥”， 相传当年八仙云游至此，发现无路可走，正在众仙一筹莫展的时候，铁拐李用他那个铁拐一指眼前的一块石头，一时间仙雾弥漫，等众仙再看时，石头已经没有了，眼前却出现了一座石桥，众仙这才顺利通过了桥面。\n过了仙人桥，有一个悬崖叫做“千尺崖”，也叫“白龙撞”，它融高、陡、险、峻、奇为一体，十分壮观。出了山洞，从吊桥上穿过白河大峡谷，就是九龙瀑布，这条 103 米高的瀑布从高山飞流直下，越入深潭，形成数百米的悬帘，浪花飞溅，瀑声如歌，飞溅的浪花随风飘到人的脸上，马上可以感到丝丝凉意。瀑布的石壁上有九条天然形成的岩纹，在瀑布的渲染下，像九条巨龙当空飞舞、摇头摆尾、活灵活现，因此被称为九龙瀑布。 </t>
+  </si>
+  <si>
+    <t>锣鼓洞</t>
+  </si>
+  <si>
+    <t>锣鼓洞位于白云山原始森林观光区鸡脚曼脚下，是白云山景区中少有的山洞景观之一。\n锣鼓洞洞高18米，宽17米，深34米，隐现于古树密林之中。锣鼓洞有二奇：锣鼓洞一奇是洞中有一水池，水不盈尺，却神秘之极，无人饮不溢，众人饮不干，其因不得其解。另一奇是如果有锣鼓铿锵、琴声悠扬的仙乐妙曲从洞中传出，则预示风调雨顺的好年景。</t>
+  </si>
+  <si>
+    <t>银杏林</t>
+  </si>
+  <si>
+    <t>白云山所在地还有一绝那就是世界上最大的千年银杏林。\n这里有着千年树龄的银杏树达千棵以上，具说有的树龄已有2000年了。这里的千年银杏树树龄之长，数量之多，堪称世界之最，现已经获得了上海基尼斯总部的认可，创了新的基尼斯纪录。\n古银杏林分布在云岩寺上、下寺遗址周围。巍峨粗大的银杏树遍布山野，村民的屋前屋后，千年古树环绕，银杏落叶遍地堆积，有近尺之厚。\n银杏林背靠的龙池曼，为长江、黄河、淮河三大水系的分水岭，地处南北气候分界线。银杏生长环境南北交错，温度适宜，年降水量合适。古树林为“人工林”，人工林在经历了数百年后，开始自然生发、繁育，成就了今天的千年古林。</t>
+  </si>
+  <si>
+    <t>玉皇顶观光区</t>
+  </si>
+  <si>
+    <t>在玉皇顶景区可以观云海日出，还可赏高山杜鹃，看到众多的自然景观，游览玉皇顶。\n随着地势的增高，气温逐渐降低，山上的植物也因而垂直分布，从下往上，游客在登山的途中就可依次看到不同的植物带，有阔叶混交林、红桦林、箭竹林和高山杜鹃林，带状分布十分明显，被专家学者誉为“天然博物馆”。\n通往玉皇顶的天梯从下而上共有198级。通过玉皇门，就是号称伏牛山“中原高峰”的玉皇顶，海拔2212米，是白云山风景区最高峰，因主峰直插天宫，顶如皇冠而得名，是中原地区观赏云海日出的最佳之地。</t>
+  </si>
+  <si>
+    <t>原始森林</t>
+  </si>
+  <si>
+    <t>洛阳白云山景区地处暖温带和亚热带过渡地带，形成了北方植被景观和南国植被风光同存一山的格局。原始森林观光区以纯自然美的景观独特于世，万亩原始森林树木参天，枝叶繁茂，遮天蔽日。林相完整，灌草丛生，野花遍地，各种稀有珍贵动植物随处可见。景点有九曲飞、水帘洞、折叠瀑、仙女池、龙王潭等。\n复杂的地理条件，孕育了繁多的动植物资源，现已制标本的维管束植物1991种，此外，区内盛产猴头鹿茸（珊瑚菌）、灵芝草、茱苓等经济菌类植物，堪称“绿色植物宝库”。\n林区内水资源丰富，到处可见瀑布，小溪，潭水，较为出名的有九曲瀑布，折叠瀑，月牙潭，龙王潭，其中龙王潭是白云山目前发现的最大的冰臼奇观，直径10.5米，自然形成的圆让人不得不惊服于大自然的鬼斧神工，潭深3.7米，底部有落叶残枝的腐质层，在水中呈黑色犹如盘卧穴底的黑龙，故而得名。</t>
+  </si>
+  <si>
+    <t>白云山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黄山</t>
+  </si>
+  <si>
+    <t>小黄山位于白云山国家森林公园东南部，小黄山内峰岭陡峭，怪石磷峋，苍松挺拔，松姿婀娜，颇具黄山之韵、之美、之奇，因而得名“小黄山”。</t>
+  </si>
+  <si>
+    <t>黄龙井</t>
+  </si>
+  <si>
+    <t>白云山黄龙井是一个直径只有几米，水呈黑色，深不见底的水潭。</t>
+  </si>
+  <si>
+    <t>黑龙潭</t>
+  </si>
+  <si>
+    <t>由于流水从高过10米的岩壁上落下，冲撞力使潭水深不可测，又因壁间冠松，伸直窥探，松根盘结岩缝中，或曲或伸，褐鳞片片，酷似黑色苍龙，浮现于潭沿，“龙”体倒映，呈现出“黑龙潭中龙探渊”的神奇景观，所以人称此潭为黑龙潭。</t>
+  </si>
+  <si>
+    <t>珍珠潭</t>
+  </si>
+  <si>
+    <t>自上而下的涓涓细流，看起来就像丝绸一样，却又以不可抗拒的神奇的力量，将花岗岩石雕琢成九曲六珠，巧夺天工世人罕见所以被称为“珍珠潭”。</t>
+  </si>
+  <si>
+    <t>白龙大峡谷</t>
+  </si>
+  <si>
+    <t>白龙大峡谷全长3000多米，落差1300多米，造就了众多潭瀑景观。</t>
+  </si>
+  <si>
+    <t>主峰玉皇顶海拔2216米，为中原第一峰，因峰插天宫，顶如皇冠而得名。登上峰顶可俯视三市六县风光，是中原地区云海日出的最佳观赏点。</t>
+  </si>
+  <si>
+    <t>森林氧吧</t>
+  </si>
+  <si>
+    <t>高山牡丹园</t>
+  </si>
+  <si>
+    <t>鸡脚曼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡脚曼位于洛阳白云山景区东南部，主峰海拔1845米，群山绵延，岭峰陡峭，在峰顶和光洁的岩壁上，苍松挺拔。在小黄山一侧，有一锣鼓洞，洞高18米，宽17米，深34米，隐现于古树密林之中。</t>
+  </si>
+  <si>
+    <t>白云湖</t>
+  </si>
+  <si>
+    <t>白云湖建于1997年，坝高17米，长35米，湖面长500米，最大蓄水量12万立方米。这里碧波荡漾，白雾缭绕，风景如画。在这白云湖下面，还有一个15万立方米的青山湖，因青山合抱，山水共色，群峰连绵而得名。白云湖是一个调节水库，专门用于调节下游瀑布用水。</t>
+  </si>
+  <si>
+    <t>白云峰</t>
+  </si>
+  <si>
+    <t>白云山景区白云峰是伏牛山系的主要山峰之一，海拔2150米，奇峰突兀,婀娜多姿。主峰常年白云缭绕，如海市蜃楼。大有“薄雾蒙翠峰，碧纱罩玉容”的意境。</t>
+  </si>
+  <si>
+    <t>洛阳白云山风景区位于河南省洛阳市嵩县南部伏牛山腹地，是国家级森林公园、国家级自然保护区、国家5A级旅游景区、中国十佳休闲胜地。已开发白云峰、玉皇顶、鸡角曼、九龙瀑布、原始森林五大观光区和白云湖、高山森林氧吧、高山牡丹园、留侯祠、芦花谷五大休闲区。</t>
+  </si>
+  <si>
+    <t>白云山森林氧吧一亩松林每天能产生49千克氧气，空气中负氧离子含量每立方厘米达到7.3万个，是城市一般公共场所的3650倍，是一般住室的1450倍。</t>
+  </si>
+  <si>
+    <t>白云山高山牡丹园由于海拔高，牡丹延长了开放期，每年5-6月份游人都可以欣赏到国色天香的牡丹芳容。不仅如此，栽植的牡丹有156个品种5.6万株，总面积达168亩，景区特设了几座十分精美的木雕观花阁，增添了不少雅趣。“青山灵雪”、“酒醉杨妃”、“朱砂垒”、“锦帐芙蓉”、“一品朱衣”、“银粉金麟”、“飞燕红妆”……无不激起每一个爱诗之人的情致。</t>
+  </si>
+  <si>
+    <t>老君山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老君庙</t>
+  </si>
+  <si>
+    <t>老君庙位于老君山正顶，与亮宝台、玉皇顶双峰对峙，中留一门叫南天门，寓意其高，门内平台，前建老君殿，后盖藏经楼，明清两代都叫老子楼。原建筑始于北魏，历代重修，唐代尉迟敬德曾监工重修一次，明朝最为鼎盛，铁椽铁瓦、大铁钟、铜牛，一片金碧辉煌，五十年代初期被毁坏，现在的庙宇是2004年重修的。老君庙自北魏建老君庙以来，已成为中原香客朝拜中心，明万历十九年颁赐老君山道经诏谕，封为“天下名山”。</t>
+  </si>
+  <si>
+    <t>老子文化苑</t>
+  </si>
+  <si>
+    <t>老子文化苑是2008年9月23日动工，规划用地南北长450米，东西宽220米，总面积10万平方米，历经一年零八个月，总投资9000万元，2010年5月16日正式开园迎宾。老子文化苑是传承和弘扬老子思想的圣地，采用汉代建筑风格，主题思想是“大道行天下，和谐兴中华”。由汉阙、老君山照壁、金水桥、众妙门，三重太极合和广场，和老子圣像等组成，老子圣象重达360吨，由288块特制锡青铜焊接而成，是目前全球最大的露天大型老子铜像。</t>
+  </si>
+  <si>
+    <t>亮宝台</t>
+  </si>
+  <si>
+    <t>亮宝台传说是太上老君展示宝贝的地方。有一年四月初八，各路神仙来景室听老君讲经，之后神仙们要求看看老君的震山之宝，老君上到峰顶拿出了阴阳扇、太极图、炼丹炉。三件宝物金光闪闪，绕老君飞旋三周落到老君手上，众仙赞不绝口。最初建造1.3米高纯金制作的放光金殿，如今金殿是国家级重点保护文物现存于栾川文物局，现顶上改建一小殿，奉祀的是武财神赵公明。民间所供赵公明财神像皆顶盔披甲，着战袍，执鞭，黑面浓须，形象威猛。周围常画有聚宝盆、大元宝、宝珠、珊瑚之类，以加强财源福辏之效果。而姜子牙在《封神榜》里却是封赵公明为金龙如意正乙龙虎玄坛真君，率领招宝天尊、纳珍天尊、招财使者和利市仙宫等，统管人世间一切金银财宝。</t>
+  </si>
+  <si>
+    <t>玉皇顶</t>
+  </si>
+  <si>
+    <t>玉皇顶是老君山最高处，也是风光最美的地方，这里四季云雾升腾，登高远望，千山万壑，尽收眼底，云蒸霞蔚，美不胜收，山顶道观中供奉玉皇大帝，玉帝又称“玄穹高上玉皇大天帝”、“昊天金阙无上至尊自然妙有弥罗至真玉皇大帝”等尊称。玉皇大帝是道教中最高级的神明之一，地位仅在三清尊神之下。但在世俗的心目中，玉皇大帝却是中国最大的神祇，是众神之王。道教认为玉皇为众神之王，在道教神阶中修为境界不是最高，但是神权最大。道经中称其居住昊天金阀弥罗天宫，妙相庄严，法身无上，统御诸天，综领万圣，主宰宇宙。每年的腊月廿五，玉皇要亲自阵圣下界，亲自巡视察看各方情况。依据众生道俗的菩恶良莠来赏善罚恶。正月初九为玉皇圣诞，俗称“玉皇会”，传言天上地下的各路神仙在这一天都要隆重庆贺，玉皇在其诞辰日的下午回鸾返回天宫。是时道教宫观内均要举行隆重的庆贺科仪。</t>
+  </si>
+  <si>
+    <t>金顶道观群</t>
+  </si>
+  <si>
+    <t>金殿建筑群，因其建成之时，金光耀目、恢宏无比，所以被称之为“金殿”。金殿坐落在晒人场，与亮宝台、玉皇顶两座山峰遥相呼应，自然天成，负阴抱阳，巧妙地构成了二龙戏珠的壮观景象，更因其巧夺天工的建筑风格和得天独厚的地理位置构成了一幅“天人合一”的完美画卷。</t>
+  </si>
+  <si>
+    <t>马鬃岭</t>
+  </si>
+  <si>
+    <t>鬃岭为老君山最高峰，海拔2217米，是观赏老君山自然风光得最佳处，站在马鬃岭上，您可尽情感受“会当凌绝顶，一览众山小”之美。</t>
+  </si>
+  <si>
+    <t>河南老君山风景区位于洛阳栾川县城东区，古号景室山，因老子归隐修炼于此而得名。老君山海拔2200米，是八百里伏牛山的主峰，山势雄伟，群峰竞秀，峰林洞涧，千姿百态。“天连五岳全雄晋，地接九州巍伏牛”山顶道观历史悠久，道教文化源远流长，自唐以来一直是豫、陕、皖、鄂香客朝拜的中心，与武当山并称为“南北二顶”，世称“南有武当金顶，北有老君铁顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -323,13 +477,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -612,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,4 +1400,556 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/河南/洛阳市/旅游数据收集-洛阳市.xlsx
+++ b/河南/洛阳市/旅游数据收集-洛阳市.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="龙门石窟" sheetId="1" r:id="rId1"/>
     <sheet name="白云山" sheetId="2" r:id="rId2"/>
     <sheet name="老君山" sheetId="3" r:id="rId3"/>
+    <sheet name="鸡冠洞" sheetId="4" r:id="rId4"/>
+    <sheet name="龙潭大峡谷" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="308">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -395,6 +397,618 @@
   <si>
     <t>河南老君山风景区位于洛阳栾川县城东区，古号景室山，因老子归隐修炼于此而得名。老君山海拔2200米，是八百里伏牛山的主峰，山势雄伟，群峰竞秀，峰林洞涧，千姿百态。“天连五岳全雄晋，地接九州巍伏牛”山顶道观历史悠久，道教文化源远流长，自唐以来一直是豫、陕、皖、鄂香客朝拜的中心，与武当山并称为“南北二顶”，世称“南有武当金顶，北有老君铁顶</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡冠洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡冠洞风景区位于河南洛阳栾川城西三公里处的小双堂沟内，属于国家AAAA级旅游景区。山以形名，洞以山名，景区内有一座山，山中有一洞，因山形似鸡冠，所以取名为鸡冠洞。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉柱潭</t>
+  </si>
+  <si>
+    <t>溢彩殿</t>
+  </si>
+  <si>
+    <t>洞内形成最早的一个洞穴，距今约6亿年，地势开阔，状似峡谷，洞顶悬挂的钟乳石，地面上的石笋星罗棋布、流光溢彩，故而得名。</t>
+  </si>
+  <si>
+    <t>叠帏宫</t>
+  </si>
+  <si>
+    <t>它得名于洞顶成排成行的石帏幔，是洞内最为精彩的大厅之一。洞顶悬挂大面积的钟乳石。</t>
+  </si>
+  <si>
+    <t>洞天河</t>
+  </si>
+  <si>
+    <t>长流不息的地下河从石缝中奔涌而出，不知来源不知去向，水声震人耳膜，景区便以此得名。</t>
+  </si>
+  <si>
+    <t>聚仙宫</t>
+  </si>
+  <si>
+    <t>石笋形态各异，如众仙欢聚一堂</t>
+  </si>
+  <si>
+    <t>瑶池宫</t>
+  </si>
+  <si>
+    <t>瑶池宫宫殿内不仅“珍藏”着许多珍稀罕见的景观，极富科研价值，而且景观之多有“移步三景”的说法</t>
+  </si>
+  <si>
+    <t>藏秀阁</t>
+  </si>
+  <si>
+    <t>藏秀阁是洞内观赏面积较小的一个景区。面积虽小但却小巧玲珑，景观琳琅满目，令人目不暇接。景区分上下两层，洞顶有一直径1.6米的洞口，从洞口望去，只见洞中石笋、石花密布，景色迷人。</t>
+  </si>
+  <si>
+    <t>石林坊</t>
+  </si>
+  <si>
+    <t>石林坊是洞内开发的最后一个景区，景观分散、成因复杂是这个景区的特点。</t>
+  </si>
+  <si>
+    <t>到溶洞进口，通过长30米，高2.5米的人工隧道，便进入第一景区玉柱潭，洞顶最高处距地面49米，可同时容纳500余人。景区内石笋、石柱密布，高低粗细不等，是洞内石笋、石柱最集中的一个景区，又因其间有一潭清澈的地下池水，所以景区得名“玉柱潭”。</t>
+  </si>
+  <si>
+    <t>众仙迎客</t>
+  </si>
+  <si>
+    <t>鸡冠洞属典型的石灰岩溶洞，地质学上称为“喀斯特岩溶地貌”。游览鸡冠洞即可获得大自然艺术与神奇的美好精神享受，又可增长许多有益的洞穴科学知识。鸡冠洞“奇、丽、幽、深、险、峻、秀”七绝并举，在全国两百多个溶洞中独占花魁.而就在玉柱潭边有个洞内的小神仙，知道今天朋友们要在网上浏览鸡冠洞，就列着整齐的队伍，踮脚翘首、喜上眉稍，欢迎朋友们的到来，特别是中间两位维妙维肖、栩栩如生，这就是第一组景观“众仙迎客”。</t>
+  </si>
+  <si>
+    <t>鳄鱼拜寿</t>
+  </si>
+  <si>
+    <t>在几亿年之前，这里曾经是一片水乡泽国，洞顶上这些白颜色的水纹线就是直接的证明。在欣赏众多的景观中，要靠我们展开丰富的联想，由看即想，想了再想，它才逼真。该组石笋名叫“鳄鱼拜寿”，左边张嘴翘尾的是一条鳄鱼。右边站立的是老寿星。瞧，鳄鱼正在向老寿星请教长寿的密诀呢！</t>
+  </si>
+  <si>
+    <t>叠罗汉</t>
+  </si>
+  <si>
+    <t>雪花石</t>
+  </si>
+  <si>
+    <t>眼前的雪花石，地质学上称之为晶霜，也叫它方解石晶花。它是非重力水向四周扩散而沉积的结果。在鸡冠洞残留的后期充填粘土层的洞壁上，由于粘土层有利于非重力水的活动，因而有大量的方解石和文石晶花生成。方解石在我国其它溶洞中也有发现，其中观赏价值最高的除鸡冠洞外还有四川的芙蓉洞，北京的石花洞，广东的蟠龙洞，由于这种石花像雪花，因此就叫它“雪花石”。同时，在这些石花的下边您还可以看到一个未开发的“雪花洞”，也就是说别看小洞口能一人屈身而入，下去七米之后就豁然开朗了。里边景观迷人，全部都是没有丝毫污染的雪花石，数量成千上万，大如脸盆、小如珍珠， 非常的漂亮。据探测结果表明：面积有两个篮球场那么大，是一个极富有开发价值的景区，所以鸡冠洞内的雪花洞是我们近期待开发景区。</t>
+  </si>
+  <si>
+    <t>一吻千年</t>
+  </si>
+  <si>
+    <t>一吻千年又叫情侣石。并排两个石笋经过漫长时间连成一体，互相偎依，上部分轻微相触，仿佛一对热恋之中的情侣。</t>
+  </si>
+  <si>
+    <t>石盾</t>
+  </si>
+  <si>
+    <t>岩溶洞穴的石盾是毛细渗透水沉积形成的奇特景观。洞穴内的渗流水沿某一裂缝以一定角度渗出沉积成盾状的沉积物就叫石盾。鸡冠洞里的这个由裂隙水、毛细渗透水形成的站立式石盾，成因独特，属溶洞之中的珍宝。经溶岩专家测定这面石盾形成时间为280万年左右，直径达两米左右，比喀巴布斯深洞的石盾还大1.2倍，它不仅是目前世界最大的站立式石盾，在结构成因上更具有极高的科研价值。</t>
+  </si>
+  <si>
+    <t>将军石</t>
+  </si>
+  <si>
+    <t>西望瑶池</t>
+  </si>
+  <si>
+    <t>这是传说中西王母居住的地方。眼前瑶池池水碧波荡漾，形若山水盆景，真可谓“山中有洞，洞中有水，水中有山”。中共中央政治局常委李长春于1993年游览鸡冠洞时，竖起拇指啧啧赞叹“鸡冠山溶洞，北国之瑰宝！”</t>
+  </si>
+  <si>
+    <t>石瀑</t>
+  </si>
+  <si>
+    <t>它象滔天大水从天而降，呼啸奔腾跌下绝壁，有“飞流直下三千尺”的磅礴气势，地质学称其为“石瀑布”</t>
+  </si>
+  <si>
+    <t>琥珀岭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一根高4米，笔直挺拔的石笋，因顶端排列着三个圆顶小石笋像三个胖罗汉叠坐而得名。绕到其后欣赏会发现石笋又依坡倾斜，像是要与比萨斜塔媲美，步移景换，变化万千，不同位置的观赏，会给人以意想不到的效果，此景观也是景区对外宣传的标志性景观。</t>
+  </si>
+  <si>
+    <t>最抢眼的景观是一根庞大的石柱，经测定石柱形成时间约500万年，柱身自然形成精妙绝伦的浮雕图案，似金龙倒盘，龙头、龙身、龙尾、龙爪清楚可辨，被命名为“盘龙玉柱”，因其雄伟高大，形成时间漫长，龙形图案逼真国内独一无二。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军石是一根直径为0.7米，高1.87米的尖顶石笋，这种奇景的形成是因为洞顶滴水位置的变化。</t>
+  </si>
+  <si>
+    <t>海豚戏珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人晾衣</t>
+  </si>
+  <si>
+    <t>石龛内有一根直径0.3米,高0.8米的石笋，极像一位头戴尖帽的小仙人，“小仙人”的左边还有一枚石盾，直径0.4米,高0.94米，其盾坠折折叠叠，似一件随风飘荡的短袖衫,景观合称“仙人晾衣”。</t>
+  </si>
+  <si>
+    <t>金龟渡仙翁</t>
+  </si>
+  <si>
+    <t>庞大的“金龟”由三块自然堆积的岩石构成，“金龟”背上生长着一根高1.1米的石笋，像一位发髻高挽、背部微驼的白髯老仙翁。金龟仿佛伸着长长的脖子，在茫茫的大海中航行，不畏艰险，乘风破浪。因金龟前进的方向，也是进入更深洞中的方向，所以这个景观也叫做“金龟指路”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豚戏珠石笋的形成时间约54000年</t>
+  </si>
+  <si>
+    <t>雪羊奋蹄</t>
+  </si>
+  <si>
+    <t>它是一只雪白的山羊，两只羊角高高耸起，你们细看，就连眼睛里的黑眼珠也显得特别有神，这个景观名叫"雪羊奋蹄"，展示着它们不畏艰辛，不屈不挠的精神。</t>
+  </si>
+  <si>
+    <t>五佛画山</t>
+  </si>
+  <si>
+    <t>整座山峰上有五个仙人分布不同位置，故名"五佛画山"。你们看最上面的一尊是观世音菩萨，正双手合拢，向今天到来的各位朋友祝福，祝各位朋友新世纪新千年里事事如意，财源连年。中间是如来佛，下面是阿弥陀佛，左边还有两尊佛。</t>
+  </si>
+  <si>
+    <t>山涧层楼</t>
+  </si>
+  <si>
+    <t>你看两山对峙，山涧流水，峡谷水中有一头海狮稳坐，它瞪着机警的眼睛，生怕有什么不祥之物惊扰他们的安宁生活。背后远处两山之间层层高楼高耸云端，雄伟壮观。大家看它像不像现代化小康村的建设风格。让我们回过头，看下屹立在路边的这根石笋。据洞穴专家考察，这根石笋是溢彩殿中形成最早的一根石笋，大约生长时间在5．4万年。现在经过顶端修饰，便妙趣横生。</t>
+  </si>
+  <si>
+    <t>八卦溢金</t>
+  </si>
+  <si>
+    <t>相传是太上老君的炼丹炉年久失修，从炉底溢出一片丹液，像一块红色的宝石镶在洞壁上。</t>
+  </si>
+  <si>
+    <t>风雪夜归人</t>
+  </si>
+  <si>
+    <t>你看那山坡上有一位老人披着斗篷，戴着风雪帽，冒着漫天大雪正向上奋力攀登，连一身厚厚的积雪也来不及抖落，简直成了一个雪人，有位朋友给他取名"风雪夜归人"。</t>
+  </si>
+  <si>
+    <t>飞瀑岩</t>
+  </si>
+  <si>
+    <t>这片碧流石如同宏大的瀑布飞泻而下，它如帘如幕，显示出洞天河的宏伟壮观气势，可惜因地壳上移，目前已被石化，否则那哗哗作响的流水，那飞溅的水珠准会打湿朋友们的衣服。</t>
+  </si>
+  <si>
+    <t>唐僧西天取经</t>
+  </si>
+  <si>
+    <t>唐僧骑着白马，身披袈裟，一派安详神态。孙悟空马前开路，在西天取经途中驱赶妖魔，活脱脱再现一副西天取经的壮丽场面。</t>
+  </si>
+  <si>
+    <t>遥看远处轻烟缭绕，山巅上一簇簇石笋如同古战场城堡耸立，给人们以巍峨壮观之感。请大家看手电照射的地方，一根独立的石笋玲珑剔透，如同东北冰雪节中的一件冰雕艺术作品。</t>
+  </si>
+  <si>
+    <t>其左前方洞壁上则有丝丝滴水落于一根粗大石笋上，仿佛一条大胖鲤鱼正张嘴接水，景观取名“鲤鱼戏水”尤其是“鲤鱼”的嘴巴、头、身体，特别是“鲤鱼”身的“鳞片”都清晰可见，而更绝妙的是洞壁渗出的水，如银线似的正好落入“鲤鱼”张开的“嘴”中。</t>
+  </si>
+  <si>
+    <t>七层宝塔</t>
+  </si>
+  <si>
+    <t>这是一根直径0.3米，高0.8米的石笋，造型逼真，符合中国古代的塔式建筑风格，整齐规范无可挑剔。仰望洞顶，可以看到洞壁上一面悬挂式石盾，盾板呈水平状，直径2.8米，再加之盾板周围有帏幕似的盾坠，即使拿古代帝王的皇罗伞与之相比亦相形见绌，国内罕见。</t>
+  </si>
+  <si>
+    <t>寿星抱桃</t>
+  </si>
+  <si>
+    <t>有一根直径0.9米高1.7米的白色石笋，形似老寿星怀抱仙桃,和蔼可亲，笑容可掬，故名“寿星抱桃”</t>
+  </si>
+  <si>
+    <t>我国有大大小小溶洞两千多个，惟有鸡冠洞有一个自然通风口。所以洞内空气清新。红光照亮的地方，景观取名叫"玉兔望月"。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天狗守月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“鳄鱼拜寿”右上的洞壁上则有两块钟乳石特别引人注意，其中一块像鱼尾卡在洞口，被称做“鲤鱼跳龙门”，栩栩如生。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼跳龙门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河马窥视图</t>
+  </si>
+  <si>
+    <t>在“鳄鱼拜寿”右上的洞壁上则有两块钟乳石特别引人注意，其中一块像鱼尾卡在洞口，被称做“鲤鱼跳龙门”，栩栩如生，另一块似河马探出头来观赏世间美景，张嘴瞪眼，表情丰富令人叹为观止，叫它“河马窥视图”。</t>
+  </si>
+  <si>
+    <t>望夫石</t>
+  </si>
+  <si>
+    <t>沿游览步道至观景台上，呈现于眼前的是一根与众不同的石笋，下粗上细，下段直径1.3米，高2米，上段直径0.54米，高1.1米，因上段形似一位长发披肩的妇人眺望远方，似在期盼亲人归来，取名“望夫石”。</t>
+  </si>
+  <si>
+    <t>罗汉醉酒</t>
+  </si>
+  <si>
+    <t>这是一块高约4米的白色壁流石，仿佛一个醉卧的胖肚大罗汉，坦胸露怀，衣衫不整，惊急之中还藏起了脑袋，造型之滑稽使人忍俊不禁。</t>
+  </si>
+  <si>
+    <t>定海神针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一根直径为0.05米，高3.1米的石柱，粗细均匀，笔直挺立，被称为“定海神针”，这也是洞内最细的石柱，属重点保护景观。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八仙过海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝塔山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>众“八仙”神情各异，张果老更是“倒骑毛驴”悠然自得</t>
+  </si>
+  <si>
+    <t>真中有假，假中亦真，如在宫阙</t>
+  </si>
+  <si>
+    <t>鲤鱼戏水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙潭大峡谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙潭大峡谷是一条由紫红色石英砂岩经流水追踪下切形成的深切峡谷，全长12公里，谷内嶂谷、隘谷呈串珠状分布，云蒸霞蔚，激流飞溅，红岩绿荫，悬崖绝壁，不同时期的流水切割、旋蚀，磨痕十分清晰，因崩塌作用所形成的山崩地裂奇观国内外罕见。景区的六大自然谜团（水往高处流、佛光罗汉崖、巨人指纹、石上天书、蝴蝶泉、仙人足迹）七大幽潭瀑布（五龙潭、龙涎潭、青龙潭、黑龙潭、卧龙潭、阴阳潭、芦苇潭）八大自然奇观（绝世天碑、石上春秋、石龛瓮谷、波纹巨石、山崩地裂、通灵巷谷、喜鹊迎宾、银链挂天）令人惊叹不已，流连忘返。红岩绝壁，飞瀑幽潭，奇石绿荫，组成世界上罕见的山水画廊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六大自然谜团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人足迹</t>
+  </si>
+  <si>
+    <t>仙女出浴</t>
+  </si>
+  <si>
+    <t>此处有一清澈见底的浅潭，旁边直立岩石的表面有一个蒙胧如仙女的图案，像刚刚从潭中沐浴而出一般。</t>
+  </si>
+  <si>
+    <t>水往高处流</t>
+  </si>
+  <si>
+    <t>石上天书</t>
+  </si>
+  <si>
+    <t>龙潭大峡谷裸露地表的岩体在风化作用下，薄层状泥质砂岩或粉砂岩风化流失，中厚层紫红色石英砂岩残留下来，形成多处神秘图案的“天书”，等待智者的破解，尤以“一人一石”清晰可辨，令人叹为观止！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人指纹</t>
+  </si>
+  <si>
+    <t>请大家伸出手指看一下我们的指纹，然后我们再看一下这块石头上的纹理，两者相比纹理造型很相似，但我们的指纹非常细小，石头上的纹理却很粗大，恐怕只有巨人才能留下这么大的指纹，所以称这块石头为“巨人指纹”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光罗汉崖</t>
+  </si>
+  <si>
+    <t>在龙潭峡的一侧崖壁上，天然形成七排整齐排列的五百罗汉造像，酷像佛教里的七级浮屠。罗汉造像形态各异，惟妙惟肖，太阳穿射峡谷之时，众罗汉身上都发出闪闪金光，形成罕见的自然奇观，让人惊叹不已。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七大幽潭瀑布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙涎潭</t>
+  </si>
+  <si>
+    <t>此崖壁间有泉水涌出，形成连珠不断的滴水景观，如青龙吐涎，其下有潭，为龙之涎水汇聚而成，谓之龙涎潭。</t>
+  </si>
+  <si>
+    <t>阴阳潭</t>
+  </si>
+  <si>
+    <t>一线瀑</t>
+  </si>
+  <si>
+    <t>一线瀑又名飞练瀑/银练挂天：在高达50米的悬崖上有一股细流从V形窄谷中泻出，似白练飞下而得名。银丝飘动，珍珠串滑，置身其境，心旷神怡。地质学上称其为“悬谷式瀑布”。</t>
+  </si>
+  <si>
+    <t>芦苇潭</t>
+  </si>
+  <si>
+    <t>从龙潭大峡谷石龛景点溯源而上，峡谷变宽，水流速度变慢，泥沙可在谷底沉积，水生植物随之生长，一尺瀑布下的水潭较浅，芦苇植物占优势，因此称芦苇滩、芦苇潭。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五龙潭</t>
+  </si>
+  <si>
+    <t>传说上古时代，茫茫宇宙本是混沌一团。自盘古开天辟地之后，清淡为气者冉冉升腾，慢慢聚成蓝天、白云、日月星辰浑浊为物者沉沉下落，慢慢凝成大地，丛生万物。时有黑、白、青、黄、赤五龙，在大地形成之初，因布设山河功业卓著被玉皇大帝封于黄河岸边、荆紫山下一处极其幽静的山间休养。天长日久，它们化作五条山脉，围清潭而卧，于是这里便有了“五龙潭”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙潭</t>
+  </si>
+  <si>
+    <t>龙潭大峡谷卧龙潭，又名飞龙潭，直径约25米，深10米。潭后有15米高的飞龙瀑布，如一条巨龙插入水中，气势壮观。</t>
+  </si>
+  <si>
+    <t>八大自然奇观</t>
+  </si>
+  <si>
+    <t>瓮谷石龛</t>
+  </si>
+  <si>
+    <t>石上春秋</t>
+  </si>
+  <si>
+    <t>千年古檀</t>
+  </si>
+  <si>
+    <t>通灵巷谷</t>
+  </si>
+  <si>
+    <t>龙潭大峡谷通灵巷谷是指谷底平直，两侧峭壁直立，谷宽仅数米至十余米的嶂谷。龙潭峡佛光罗汉崖处就是一段巷谷，长百余米，宽十余米，谷内行走，犹如穿街过巷，故得此名。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波纹巨石</t>
+  </si>
+  <si>
+    <t>喜鹊迎宾</t>
+  </si>
+  <si>
+    <t>站在波痕崖的旁边，抬头仰望右侧崖顶，有一块突出迎面的条形石块，形状很像一只喜鹊。姿态犹如在迎接客人一般。</t>
+  </si>
+  <si>
+    <t>山崩地裂</t>
+  </si>
+  <si>
+    <t>该段峡谷比较开阔，两侧崖壁直峭，断层新鲜，河床及两侧水流打磨痕迹浅淡，谷底布满巨石，足见这里曾发生过崩塌地质灾害。因该段峡谷两侧石英砂岩的底层有一层比较松软的泥质砂岩，水流下切至该层面，松软的泥质砂岩被冲刷剥落流失掉，使两侧的崖壁悬空，当支撑不住时就会发生坍塌和滑坡，巨石堆积于山谷中，就形成今天的山崩地裂奇观。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝世天碑</t>
+  </si>
+  <si>
+    <t>龙隐谷</t>
+  </si>
+  <si>
+    <t>黑龙瀑布</t>
+  </si>
+  <si>
+    <t>古海沉船</t>
+  </si>
+  <si>
+    <t>摇摆桥</t>
+  </si>
+  <si>
+    <t>情侣瀑</t>
+  </si>
+  <si>
+    <t>刀碑石</t>
+  </si>
+  <si>
+    <t>龙潭小金鞭</t>
+  </si>
+  <si>
+    <t>常言说：“人往高处走，水往低处流。”但是龙潭大峡谷有一处水却是由低处往高处流，大家不妨猜测一下这是什么现象？形成这种现象又是何种原因？这是一个自然之谜，专家们也是众说纷纭，各持一词，游客到此更是驻足品踹，争论不休。感兴趣的朋友可以前来研究一下，没准儿呀这个谜就让您破解了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石上春秋又名石上檀，檀树属于豆科植物，《诗经》曾说：将种子兮，乐彼之园，勿逾我园，勿折我树檀。这颗檀树以其顽强的生命力，扎根于石缝之中，直立于岩石之上，寒暑易节，蓬勃向上，真是"青青数株檀，虬根盘石岩，千磨万击处，傲立年复年。"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再往深处，有一棵千年古檀，傍崖而立，高约30米，冠幅约40米，树冠硕大，枝叶茂密，遮天盖地；树干由底部分4杈，集簇向上，胸围6.5米；树根裸露抓伏在岩石上，纵横交错，如盘龙卧虬，仅靠吸收白云质灰岩和石英砂岩之间的水份生长。它顽强求生的铮铮铁骨给人以深刻启迪。下有祭坛，可供焚香许愿。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙潭大峡谷号称“古海洋天然博物馆”，在这里可以看到上百种不同形状的波痕，这是海浪冲刷留下的痕迹，这块波纹巨石如一块天然的搓衣板，静静地平躺在峡谷的山凹中，它可以毫不客气的称为世界上最大的搓板，你看它色泽鲜艳，纹理优美，再加上有翠绿的植被点缀，组成一幅充满诗情画意的图画。另外还有壮观的山崩地裂奇观，犹如南方小巷般的通灵巷谷，俏皮可爱的喜鹊迎宾，如银丝飘动珍珠串滑一样的一线瀑等等。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“山不在高，有仙则名”。这块石头上有几个凹坑，就如人的脚印一般，传说是仙人路过此地看到峡谷内的清流下马浴足时留下的。另有一处如马蹄的图案，像是仙人的坐骑留下的。两个脚印同在一块石屏上，相距不足一米，如此巧合令人遐想。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙潭大峡谷黑龙潭是距今12亿年前后形成的中元古界石英砂岩在新构造运动背景下，发育了两组相互直交且连通性好的垂直节理，流水沿节理密集的部位强烈下切，形成两侧峭壁直立，长20m、宽仅1～3m、深达50m的隘谷(一线天)。谷底一潭，水深约4-5m，尤如一条黑龙盘踞在此称“黑龙潭”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家现在看到的这两处类乎于半球形，直立面非常光滑的壶穴，称为“瓮谷”和“石龛”，直径达20米，弧度270度，仰视如置身瓮中，是由于峡谷内长期的流水冲刷旋蚀形成的，这样一个个光滑圆润的凹穴，犹如陨石坠落形成的天坑，又如石窟内的佛龛，让我们深感大自然的鬼斧神工。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“沧海写史书，天公树丰碑”。天碑高达百余米，由崩塌作用形成，昂首挺立，直至苍穹，大由凌空遏云之势。天碑意境多变， 俯视如刀背，仰视如苍鹰，正视如书，侧视如碑，任尔遐想。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由两个水潭衔接一起，像一个卡腰宝葫芦，水深约12米。因高峡内阳光照射不匀，明暗有别，所以有“阳潭”、“阴潭”之说。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他景点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳯亭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠风洞</t>
+  </si>
+  <si>
+    <t>它是由白云质灰岩沿裂隙溶蚀而形成的天然洞穴，含有泥质白云质灰层。裂隙比较发育，洞体宽窄不同，洞深莫测，洞口有风流动；盛夏森森然冷气爽人，隆冬则暖风融融，似有盎然春意。所以，无论三伏数九，总是清风宜人，招人驻足流连，被人们称为惠风洞。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人指路</t>
+  </si>
+  <si>
+    <t>惠风洞外左侧，高高的石崖上有尊象形石人头像，形象巍然，正襟危坐，守候在通往龙潭峡谷的路上，象是在迎接远道而来的客人一般。</t>
+  </si>
+  <si>
+    <t>青石牌坊</t>
+  </si>
+  <si>
+    <t>是龙潭峡谷风景区的入口。牌坊前、后各有坊联。</t>
+  </si>
+  <si>
+    <t>红孩儿山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过了龙潭峡谷的牌坊右侧红房子的后边便是红孩儿山，雄伟挺拔，峰峦叠翠，把青河川岔开：右边为山窝河谷，地势较缓，是古道通往黄河渡口的必经之地，并与黛眉峡谷风景区连接；左边就是龙潭峡谷，又称“八里迷谷”，一直通往黄帝密都青要山腹地，与双龙峡谷风景区连接。山上有石洞，洞内供奉有黛眉奶奶、送子奶奶和观音老母三尊神像。是当地人祈财邀福，求子保平安的地方。</t>
+  </si>
+  <si>
+    <t>红孩儿寺</t>
+  </si>
+  <si>
+    <t>相传牛魔王的儿子红孩儿在附近一带食人，被观音老母治服，收入一瓦罐之中，压在红崖寺下（当地人称红孩儿寺）。</t>
+  </si>
+  <si>
+    <t>红石峡</t>
+  </si>
+  <si>
+    <t>龙潭峡景区的紫红色石英砂岩沉积于距今12亿年前后的海滨地带。260万年以来，由于新构造运动的强烈抬升和水蚀作用的深度切割，形成高达百余米的丹崖长墙和宽仅数米至数十米的碧水丹峡景观。</t>
+  </si>
+  <si>
+    <t>五龙瀑</t>
+  </si>
+  <si>
+    <t>龙潭峡谷的河水从五龙潭后的绝壁悬沟口处跌落而下，轰然作响，犹如龙吟虎啸，声震山谷，形成一条壮观的瀑布，人们叫它“五龙瀑”。</t>
+  </si>
+  <si>
+    <t>五龙洞</t>
+  </si>
+  <si>
+    <t>在五龙瀑西侧岩壁上有一个深2米、宽3米、高5—6米的石洞，传说峡谷内的五条龙在五龙潭戏水之后，常来此洞中修神养性，所以人们称其为五龙洞。</t>
+  </si>
+  <si>
+    <t>五龙潭隧道</t>
+  </si>
+  <si>
+    <t>该隧道长61米，宽2米，高2.5米，是为进入峡谷方便而人工开凿的一座石洞，冬暖夏凉，是一个天然的空调。</t>
+  </si>
+  <si>
+    <t>五龙潭右侧上方的亭子为龙亭，左侧的为凤亭。</t>
+  </si>
+  <si>
+    <t>内有绝壁攀岩项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀑布从15米高的断崖上跌下，银花四溅，哗哗作响；高峡之内，暗中有亮，静中有声，幽光明灭，奇幻无穷，置身其中，恍恍然如临梦境，冥冥中如在世外，不禁令人毛骨悚然。</t>
+  </si>
+  <si>
+    <t>这艘人工仿造的古海底沉船古色古香，惟妙惟肖，和周围的环境相映成趣</t>
+  </si>
+  <si>
+    <t>游客走上玻璃悬索桥可体验在百米的高空中悬空站立。与国内其他玻璃栈道不同的是，由于这是悬索桥结构，并不是固定不动的，所以当多人走上去时，将会出现上下左右的摇摆晃动，加之桥面为全透明玻璃，更让人胆战心惊，与玻璃栈道感受会截然不同，这也是玻璃悬索桥的亮点所在。</t>
+  </si>
+  <si>
+    <t>形似男女情侣的山峰间的瀑布，景观奇特，因得此名。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说，这本是二郎神斩杀小白龙的大刀，圣母娲皇在安置了小白龙神位之后，又把二郎神丢下的大刀竖立起来，刀背对着无头冤神洞，于是二郎神斩杀小白龙的大刀，成了纪念小白龙的无字碑，人们称其为“擎天刀碑石”。</t>
+  </si>
+  <si>
+    <t>如果龙潭小金鞭愿意作为一根桨，肯为我的游船划一划，这小范围的乘风破浪，丝毫不输给汹涌澎湃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉柱擎天</t>
+  </si>
+  <si>
+    <t>鸡冠石花王</t>
+  </si>
+  <si>
+    <t>矗立在琥珀岭中心位置的石柱，直径13米，高28米宏伟壮观，顶天立地，洞顶上的渗水缓缓顺柱身流下，使石柱显得格外晶莹剔透</t>
+  </si>
+  <si>
+    <t>信步第五景区，洞壁上石花成簇成片，犹如菊花怒放，争奇斗妍，其中最大的菊花石直径达0.3米，花朵硕大，造型奇特，被誉为“鸡冠石花王”。</t>
+  </si>
+  <si>
+    <t>南天门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王母宝座</t>
+  </si>
+  <si>
+    <t>水中生长着九根粗大的石笋，正中一根似精雕细琢的“王母宝座”</t>
+  </si>
+  <si>
+    <t>白玉山</t>
+  </si>
+  <si>
+    <t>白玉山如同白玉雕凿而成，中空且通体光滑</t>
+  </si>
+  <si>
+    <t>天宫冰灯</t>
+  </si>
+  <si>
+    <t>似乎是严冬里的冰挂，又像皇宫里的灯盏，纹络清晰，棱角圆滑且分明。</t>
+  </si>
+  <si>
+    <t>盘龙玉柱</t>
+  </si>
+  <si>
+    <t>石牡丹</t>
+  </si>
+  <si>
+    <t>情侣石</t>
+  </si>
+  <si>
+    <t>是两细小石笋经漫长时间连合在一起而成的，仿佛一对热恋的情侣相互依偎，它的位置就在“千年一吻”同侧向前的2.5米处。</t>
+  </si>
+  <si>
+    <t>莲花池</t>
+  </si>
+  <si>
+    <t>形体最大的一种石花，堪称奇中之奇，它直径有0.14米，纯洁莹亮，国色天香，由第六景区摄影台拾级而上33级台阶路左侧洞壁上便可欣赏到。</t>
+  </si>
+  <si>
+    <t>流石坝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由洞壁流水在地面上形成状如层层梯田的沉积物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳盾</t>
+  </si>
+  <si>
+    <t>银龟指路</t>
+  </si>
+  <si>
+    <t>位于石帘右侧，一个长4.8米的混合沉积物，形似乌龟，其行进方向正对出口，所以取名“银龟指路”。</t>
+  </si>
+  <si>
+    <t>莲花盆，呈圆形或椭圆形，表面平整，边缘薄，似荷叶浮于水面，它属于重力水与非重力水或者重力水的多种运动形式，多机制协同作用的生成物。北方溶洞中仅在鸡冠洞发现4处。莲花池水面平静如镜，倒映洞顶景象，分明就是海底世界，珊瑚成群，峡谷幽深，神秘莫测。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与石帘同侧的洞壁上有两面相邻生长的石盾，一面直径0.51米的盾板正对观景台，另一面直径0.77米方向相反，形成互为阴阳的奇特景象。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑶池宫的入口“南天门”险狭异常，在其左右两侧各有一根光滑的石笋，若用灯光照射，通体透亮，光彩夺目，故名透明石。</t>
   </si>
 </sst>
 </file>
@@ -477,7 +1091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,6 +1111,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1788,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1952,4 +2574,1937 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>